--- a/Excel/TitleConfig.xlsx
+++ b/Excel/TitleConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136EDE77-2FE9-4780-8FC1-E300CE009E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A68565A-3923-4DC7-9C63-30CA6BAA2102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="630" windowWidth="27705" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="1170" windowWidth="27705" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -99,6 +99,14 @@
   </si>
   <si>
     <t>称号5</t>
+  </si>
+  <si>
+    <t>ValidityTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期(秒)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -530,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H14"/>
+  <dimension ref="C3:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -543,12 +551,12 @@
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="6" max="7" width="23.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
@@ -562,11 +570,14 @@
         <v>6</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -580,10 +591,13 @@
         <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
@@ -597,10 +611,13 @@
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>10001</v>
       </c>
@@ -613,9 +630,14 @@
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G6" s="1">
+        <v>120</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C7" s="8">
         <v>10002</v>
       </c>
@@ -628,11 +650,14 @@
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="1">
+        <v>120</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C8" s="8">
         <v>10003</v>
       </c>
@@ -645,9 +670,14 @@
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G8" s="1">
+        <v>120</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C9" s="8">
         <v>10004</v>
       </c>
@@ -660,11 +690,14 @@
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="1">
+        <v>120</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C10" s="8">
         <v>10005</v>
       </c>
@@ -675,18 +708,23 @@
         <v>10005</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G10" s="1">
+        <v>120</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
     </row>
   </sheetData>

--- a/Excel/TitleConfig.xlsx
+++ b/Excel/TitleConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A68565A-3923-4DC7-9C63-30CA6BAA2102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F1BA7E-14D3-4AE5-9836-A4C1E6DACB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="1170" windowWidth="27705" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="C3:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/TitleConfig.xlsx
+++ b/Excel/TitleConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F1BA7E-14D3-4AE5-9836-A4C1E6DACB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746DBF47-80D8-4024-B036-D4ED1E80EDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="1170" windowWidth="27705" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="1035" windowWidth="27705" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -107,6 +107,25 @@
   <si>
     <t>有效期(秒)</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列帧动画</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列帧动画数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimatorNumber</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimatorAsset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdqb</t>
   </si>
 </sst>
 </file>
@@ -210,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -232,6 +251,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -538,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:I14"/>
+  <dimension ref="C3:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -551,12 +573,12 @@
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
-    <col min="6" max="7" width="23.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="6" max="9" width="23.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
@@ -570,14 +592,20 @@
         <v>6</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -591,13 +619,19 @@
         <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
@@ -611,13 +645,19 @@
         <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>10001</v>
       </c>
@@ -630,14 +670,20 @@
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1">
         <v>120</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C7" s="8">
         <v>10002</v>
       </c>
@@ -650,14 +696,20 @@
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1">
         <v>120</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C8" s="8">
         <v>10003</v>
       </c>
@@ -670,14 +722,20 @@
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1">
         <v>120</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C9" s="8">
         <v>10004</v>
       </c>
@@ -690,14 +748,20 @@
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="1">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1">
         <v>120</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C10" s="8">
         <v>10005</v>
       </c>
@@ -707,24 +771,32 @@
       <c r="E10" s="5">
         <v>10005</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="1">
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="1">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1">
         <v>120</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
     </row>
   </sheetData>

--- a/Excel/TitleConfig.xlsx
+++ b/Excel/TitleConfig.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746DBF47-80D8-4024-B036-D4ED1E80EDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24FA4A9-6579-45E3-8125-A4EFA65FCB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1035" windowWidth="27705" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>Id</t>
   </si>
@@ -84,23 +84,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>称号1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>称号2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>称号3</t>
-  </si>
-  <si>
-    <t>称号4</t>
-  </si>
-  <si>
-    <t>称号5</t>
-  </si>
-  <si>
     <t>ValidityTime</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -125,7 +108,61 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>gdqb</t>
+    <t>武林新丁</t>
+  </si>
+  <si>
+    <t>绝世英豪</t>
+  </si>
+  <si>
+    <t>无名之辈</t>
+  </si>
+  <si>
+    <t>武林俊杰</t>
+  </si>
+  <si>
+    <t>红尘本无道</t>
+  </si>
+  <si>
+    <t>独孤求败</t>
+  </si>
+  <si>
+    <t>勇者无敌</t>
+  </si>
+  <si>
+    <t>武林至尊</t>
+  </si>
+  <si>
+    <t>八荒雷动</t>
+  </si>
+  <si>
+    <t>九霄风云</t>
+  </si>
+  <si>
+    <t>名扬四海</t>
+  </si>
+  <si>
+    <t>天下无双</t>
+  </si>
+  <si>
+    <t>名震八方</t>
+  </si>
+  <si>
+    <t>世人笑我太疯癫</t>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩放大小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一刃横天</t>
   </si>
 </sst>
 </file>
@@ -189,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -210,26 +247,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -238,22 +260,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:K14"/>
+  <dimension ref="C1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -578,7 +585,9 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
@@ -592,20 +601,22 @@
         <v>6</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -619,19 +630,22 @@
         <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
@@ -656,149 +670,455 @@
       <c r="J5" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="5">
+      <c r="K5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="4">
         <v>10001</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4">
         <v>10001</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4">
+        <v>10001</v>
+      </c>
+      <c r="H6" s="4">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4">
+        <v>99999999</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="4">
+        <v>10002</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4">
+        <v>10002</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4">
+        <v>10002</v>
+      </c>
+      <c r="H7" s="4">
+        <v>8</v>
+      </c>
+      <c r="I7" s="4">
+        <v>99999999</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="4">
+        <v>10003</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10003</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4">
+        <v>10003</v>
+      </c>
+      <c r="H8" s="4">
+        <v>11</v>
+      </c>
+      <c r="I8" s="4">
+        <v>99999999</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="4">
+        <v>10004</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4">
+        <v>10004</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4">
+        <v>10004</v>
+      </c>
+      <c r="H9" s="4">
+        <v>10</v>
+      </c>
+      <c r="I9" s="4">
+        <v>99999999</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="4">
+        <v>10005</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10005</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4">
+        <v>10005</v>
+      </c>
+      <c r="H10" s="4">
+        <v>20</v>
+      </c>
+      <c r="I10" s="4">
+        <v>99999999</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="4">
+        <v>10006</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10006</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4">
+        <v>10006</v>
+      </c>
+      <c r="H11" s="4">
+        <v>11</v>
+      </c>
+      <c r="I11" s="4">
+        <v>99999999</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="4">
+        <v>10007</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4">
+        <v>10007</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4">
+        <v>10007</v>
+      </c>
+      <c r="H12" s="4">
+        <v>11</v>
+      </c>
+      <c r="I12" s="4">
+        <v>99999999</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="4">
+        <v>10008</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4">
+        <v>10008</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4">
+        <v>10008</v>
+      </c>
+      <c r="H13" s="4">
+        <v>10</v>
+      </c>
+      <c r="I13" s="4">
+        <v>99999999</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="4">
+        <v>10009</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="1">
+      <c r="E14" s="4">
+        <v>10009</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="4">
+        <v>10009</v>
+      </c>
+      <c r="H14" s="4">
         <v>11</v>
       </c>
-      <c r="I6" s="1">
-        <v>120</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="I14" s="4">
+        <v>99999999</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="8">
-        <v>10002</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="5">
-        <v>10002</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="K14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="4">
+        <v>10010</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10010</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4">
+        <v>10010</v>
+      </c>
+      <c r="H15" s="4">
         <v>11</v>
       </c>
-      <c r="I7" s="1">
-        <v>120</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="I15" s="4">
+        <v>99999999</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="4">
+        <v>10011</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="4">
+        <v>10011</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="4">
+        <v>10011</v>
+      </c>
+      <c r="H16" s="4">
+        <v>40</v>
+      </c>
+      <c r="I16" s="4">
+        <v>99999999</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C8" s="8">
-        <v>10003</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5">
-        <v>10003</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="K16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="4">
+        <v>10012</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="4">
+        <v>10012</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="4">
+        <v>10012</v>
+      </c>
+      <c r="H17" s="4">
+        <v>10</v>
+      </c>
+      <c r="I17" s="4">
+        <v>99999999</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="4">
+        <v>10013</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="4">
+        <v>10013</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="4">
+        <v>10013</v>
+      </c>
+      <c r="H18" s="4">
         <v>11</v>
       </c>
-      <c r="I8" s="1">
-        <v>120</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="I18" s="4">
+        <v>99999999</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C9" s="8">
-        <v>10004</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="5">
-        <v>10004</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="1">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1">
-        <v>120</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="4">
+        <v>10014</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="4">
+        <v>10014</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="4">
+        <v>10014</v>
+      </c>
+      <c r="H19" s="4">
+        <v>9</v>
+      </c>
+      <c r="I19" s="4">
+        <v>99999999</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C10" s="8">
-        <v>10005</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
-        <v>10005</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="1">
-        <v>11</v>
-      </c>
-      <c r="I10" s="1">
-        <v>120</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="4">
+        <v>10015</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="4">
+        <v>10015</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="4">
+        <v>10014</v>
+      </c>
+      <c r="H20" s="4">
+        <v>10</v>
+      </c>
+      <c r="I20" s="4">
+        <v>99999999</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="1"/>
-    </row>
+      <c r="K20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TitleConfig.xlsx
+++ b/Excel/TitleConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24FA4A9-6579-45E3-8125-A4EFA65FCB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF6286F-5FE1-439E-A84A-799465DF368C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>Id</t>
   </si>
@@ -132,18 +132,12 @@
     <t>武林至尊</t>
   </si>
   <si>
-    <t>八荒雷动</t>
-  </si>
-  <si>
     <t>九霄风云</t>
   </si>
   <si>
     <t>名扬四海</t>
   </si>
   <si>
-    <t>天下无双</t>
-  </si>
-  <si>
     <t>名震八方</t>
   </si>
   <si>
@@ -163,6 +157,78 @@
   </si>
   <si>
     <t>一刃横天</t>
+  </si>
+  <si>
+    <t>X偏移</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y便宜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100203;500</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量+300</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100203;300</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量+500</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetDes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30级完成任务激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>60级完成任务激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角斗场活动获取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场活动获取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就系统获取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞助礼包获取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无获取方法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>令牌系统获取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分系统获取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -567,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:K30"/>
+  <dimension ref="C1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -580,14 +646,19 @@
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
-    <col min="6" max="9" width="23.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="23.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.75" style="2" customWidth="1"/>
+    <col min="11" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="18.75" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
@@ -613,10 +684,19 @@
         <v>13</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -642,10 +722,19 @@
         <v>9</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
@@ -671,10 +760,19 @@
         <v>2</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="4">
         <v>10001</v>
       </c>
@@ -685,7 +783,7 @@
         <v>10001</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G6" s="4">
         <v>10001</v>
@@ -697,13 +795,22 @@
         <v>99999999</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="K6" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="4">
         <v>10002</v>
       </c>
@@ -714,7 +821,7 @@
         <v>10002</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G7" s="4">
         <v>10002</v>
@@ -726,13 +833,22 @@
         <v>99999999</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="K7" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="4">
         <v>10003</v>
       </c>
@@ -760,8 +876,17 @@
       <c r="K8" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="4">
         <v>10004</v>
       </c>
@@ -789,8 +914,17 @@
       <c r="K9" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4">
         <v>10005</v>
       </c>
@@ -818,8 +952,17 @@
       <c r="K10" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="4">
         <v>10006</v>
       </c>
@@ -839,7 +982,7 @@
         <v>11</v>
       </c>
       <c r="I11" s="4">
-        <v>99999999</v>
+        <v>86400</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>15</v>
@@ -847,8 +990,17 @@
       <c r="K11" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="4">
+        <v>-20</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4">
         <v>10007</v>
       </c>
@@ -868,7 +1020,7 @@
         <v>11</v>
       </c>
       <c r="I12" s="4">
-        <v>99999999</v>
+        <v>86400</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>14</v>
@@ -876,13 +1028,22 @@
       <c r="K12" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="4">
         <v>10008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="4">
         <v>10008</v>
@@ -905,8 +1066,17 @@
       <c r="K13" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="4">
         <v>10009</v>
       </c>
@@ -934,54 +1104,72 @@
       <c r="K14" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="4">
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="4">
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="4">
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="H15" s="4">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="I15" s="4">
         <v>99999999</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K15" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4">
-        <v>10011</v>
+        <v>10013</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" s="4">
-        <v>10011</v>
+        <v>10013</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="4">
-        <v>10011</v>
+        <v>10013</v>
       </c>
       <c r="H16" s="4">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I16" s="4">
         <v>99999999</v>
@@ -992,25 +1180,34 @@
       <c r="K16" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="4">
-        <v>10012</v>
+        <v>10014</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="4">
-        <v>10012</v>
+        <v>10014</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="4">
-        <v>10012</v>
+        <v>10014</v>
       </c>
       <c r="H17" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I17" s="4">
         <v>99999999</v>
@@ -1021,25 +1218,34 @@
       <c r="K17" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="4">
-        <v>10013</v>
+        <v>10015</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E18" s="4">
-        <v>10013</v>
+        <v>10015</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="4">
-        <v>10013</v>
+        <v>10015</v>
       </c>
       <c r="H18" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I18" s="4">
         <v>99999999</v>
@@ -1050,75 +1256,26 @@
       <c r="K18" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="4">
-        <v>10014</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="4">
-        <v>10014</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="4">
-        <v>10014</v>
-      </c>
-      <c r="H19" s="4">
-        <v>9</v>
-      </c>
-      <c r="I19" s="4">
-        <v>99999999</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="4">
-        <v>10015</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="4">
-        <v>10015</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="4">
-        <v>10014</v>
-      </c>
-      <c r="H20" s="4">
-        <v>10</v>
-      </c>
-      <c r="I20" s="4">
-        <v>99999999</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="3:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TitleConfig.xlsx
+++ b/Excel/TitleConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF6286F-5FE1-439E-A84A-799465DF368C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B75A31-DB49-4B9D-86BF-DD1F7535500A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleProto" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{E5C3746B-21F6-4C38-AF5A-6E67ABF559E4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+-1 永久
+其他对应秒时间</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
   <si>
     <t>Id</t>
   </si>
@@ -67,167 +104,256 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>100203;50@100603;10</t>
-  </si>
-  <si>
     <t>额外属性描述</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValidityTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期(秒)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列帧动画</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列帧动画数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimatorNumber</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimatorAsset</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武林新丁</t>
+  </si>
+  <si>
+    <t>无名之辈</t>
+  </si>
+  <si>
+    <t>武林俊杰</t>
+  </si>
+  <si>
+    <t>红尘本无道</t>
+  </si>
+  <si>
+    <t>独孤求败</t>
+  </si>
+  <si>
+    <t>勇者无敌</t>
+  </si>
+  <si>
+    <t>武林至尊</t>
+  </si>
+  <si>
+    <t>九霄风云</t>
+  </si>
+  <si>
+    <t>名震八方</t>
+  </si>
+  <si>
+    <t>世人笑我太疯癫</t>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩放大小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一刃横天</t>
+  </si>
+  <si>
+    <t>X偏移</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y便宜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100203;500</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>血量+300</t>
-  </si>
-  <si>
-    <t>攻击穿透+2%</t>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ValidityTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效期(秒)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>序列帧动画</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>序列帧动画数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimatorNumber</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimatorAsset</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武林新丁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100203;300</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量+500</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetDes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30级完成任务激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>60级完成任务激活</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角斗场活动获取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场活动获取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就系统获取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞助礼包获取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>令牌系统获取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分系统获取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击+100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100403;100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100403;50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击+50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202;0.01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量提高1%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100402;0.01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升1%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率+2%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200103;0.02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加成+2%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200903;0.02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升2%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>202103;0.02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击率+2%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100403;0.02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无获取方法,后期添加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>120703;100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术强度+100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避率+1%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200303;0.01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名扬四海</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>绝世英豪</t>
-  </si>
-  <si>
-    <t>无名之辈</t>
-  </si>
-  <si>
-    <t>武林俊杰</t>
-  </si>
-  <si>
-    <t>红尘本无道</t>
-  </si>
-  <si>
-    <t>独孤求败</t>
-  </si>
-  <si>
-    <t>勇者无敌</t>
-  </si>
-  <si>
-    <t>武林至尊</t>
-  </si>
-  <si>
-    <t>九霄风云</t>
-  </si>
-  <si>
-    <t>名扬四海</t>
-  </si>
-  <si>
-    <t>名震八方</t>
-  </si>
-  <si>
-    <t>世人笑我太疯癫</t>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩放大小</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一刃横天</t>
-  </si>
-  <si>
-    <t>X偏移</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y便宜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100203;500</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量+300</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100203;300</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量+500</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetDes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>30级完成任务激活</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>60级完成任务激活</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角斗场活动获取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战场活动获取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就系统获取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>赞助礼包获取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无获取方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>令牌系统获取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分系统获取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄豪杰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录奖励系统获取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物防和魔防提升80点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100603;80@100803;80</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +361,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +396,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -632,11 +773,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -660,7 +801,7 @@
     <row r="2" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>4</v>
@@ -672,28 +813,28 @@
         <v>6</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -710,28 +851,28 @@
         <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -760,13 +901,13 @@
         <v>2</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>2</v>
@@ -777,13 +918,13 @@
         <v>10001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4">
         <v>10001</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G6" s="4">
         <v>10001</v>
@@ -792,10 +933,10 @@
         <v>10</v>
       </c>
       <c r="I6" s="4">
-        <v>99999999</v>
+        <v>-1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K6" s="4">
         <v>2</v>
@@ -807,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -815,13 +956,13 @@
         <v>10002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4">
         <v>10002</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G7" s="4">
         <v>10002</v>
@@ -830,10 +971,10 @@
         <v>8</v>
       </c>
       <c r="I7" s="4">
-        <v>99999999</v>
+        <v>-1</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K7" s="4">
         <v>2</v>
@@ -845,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -853,25 +994,25 @@
         <v>10003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="E8" s="4">
         <v>10003</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G8" s="4">
-        <v>10003</v>
+        <v>10008</v>
       </c>
       <c r="H8" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" s="4">
-        <v>99999999</v>
+        <v>-1</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="K8" s="4">
         <v>2</v>
@@ -883,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -891,13 +1032,13 @@
         <v>10004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9" s="4">
         <v>10004</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G9" s="4">
         <v>10004</v>
@@ -906,10 +1047,10 @@
         <v>10</v>
       </c>
       <c r="I9" s="4">
-        <v>99999999</v>
+        <v>-1</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="K9" s="4">
         <v>2</v>
@@ -921,33 +1062,33 @@
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4">
-        <v>10005</v>
+        <v>100041</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="E10" s="4">
-        <v>10005</v>
+        <v>10016</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G10" s="4">
-        <v>10005</v>
+        <v>10016</v>
       </c>
       <c r="H10" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I10" s="4">
-        <v>99999999</v>
+        <v>-1</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="K10" s="4">
         <v>2</v>
@@ -959,62 +1100,62 @@
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="4">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E11" s="4">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G11" s="4">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="H11" s="4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I11" s="4">
-        <v>86400</v>
+        <v>-1</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="K11" s="4">
         <v>2</v>
       </c>
       <c r="L11" s="4">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E12" s="4">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="G12" s="4">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="H12" s="4">
         <v>11</v>
@@ -1023,83 +1164,83 @@
         <v>86400</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="K12" s="4">
         <v>2</v>
       </c>
       <c r="L12" s="4">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="4">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E13" s="4">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G13" s="4">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="H13" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13" s="4">
-        <v>99999999</v>
+        <v>86400</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="K13" s="4">
         <v>2</v>
       </c>
       <c r="L13" s="4">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="4">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="E14" s="4">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G14" s="4">
-        <v>10009</v>
+        <v>10003</v>
       </c>
       <c r="H14" s="4">
         <v>11</v>
       </c>
       <c r="I14" s="4">
-        <v>99999999</v>
+        <v>-1</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="K14" s="4">
         <v>2</v>
@@ -1111,33 +1252,33 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="4">
-        <v>10011</v>
+        <v>10009</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E15" s="4">
-        <v>10011</v>
+        <v>10009</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G15" s="4">
-        <v>10011</v>
+        <v>10009</v>
       </c>
       <c r="H15" s="4">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I15" s="4">
-        <v>99999999</v>
+        <v>-1</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="K15" s="4">
         <v>2</v>
@@ -1149,33 +1290,33 @@
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4">
-        <v>10013</v>
+        <v>10011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E16" s="4">
-        <v>10013</v>
+        <v>10011</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="G16" s="4">
-        <v>10013</v>
+        <v>10011</v>
       </c>
       <c r="H16" s="4">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="I16" s="4">
-        <v>99999999</v>
+        <v>-1</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="K16" s="4">
         <v>2</v>
@@ -1187,33 +1328,33 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="4">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E17" s="4">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="G17" s="4">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="H17" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I17" s="4">
-        <v>99999999</v>
+        <v>-1</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="K17" s="4">
         <v>2</v>
@@ -1225,48 +1366,85 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="4">
+        <v>10014</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="4">
+        <v>10014</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="4">
+        <v>10014</v>
+      </c>
+      <c r="H18" s="4">
+        <v>9</v>
+      </c>
+      <c r="I18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="4">
         <v>10015</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="D19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="4">
         <v>10015</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="F19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="4">
         <v>10015</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H19" s="4">
         <v>10</v>
       </c>
-      <c r="I18" s="4">
-        <v>99999999</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="4">
-        <v>2</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="I19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="4">
+        <v>2</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="20" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1280,5 +1458,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/TitleConfig.xlsx
+++ b/Excel/TitleConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B75A31-DB49-4B9D-86BF-DD1F7535500A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77147AA-5288-4307-8936-2CA3EB2F1C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -777,7 +777,7 @@
   <dimension ref="C1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="N16" sqref="C16:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/TitleConfig.xlsx
+++ b/Excel/TitleConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77147AA-5288-4307-8936-2CA3EB2F1C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA33EA29-2994-451A-8831-2E6D65F9FC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -309,10 +309,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>100403;0.02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>暂无获取方法,后期添加</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -354,6 +350,10 @@
   </si>
   <si>
     <t>100603;80@100803;80</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100402;0.02</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -777,7 +777,7 @@
   <dimension ref="C1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="N16" sqref="C16:N16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -994,7 +994,7 @@
         <v>10003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="4">
         <v>10003</v>
@@ -1070,7 +1070,7 @@
         <v>100041</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="4">
         <v>10016</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1222,13 +1222,13 @@
         <v>10008</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="4">
         <v>10008</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" s="4">
         <v>10003</v>
@@ -1240,7 +1240,7 @@
         <v>-1</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K14" s="4">
         <v>2</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1342,7 +1342,7 @@
         <v>10013</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" s="4">
         <v>10013</v>
@@ -1354,7 +1354,7 @@
         <v>-1</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K17" s="4">
         <v>2</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1380,7 +1380,7 @@
         <v>10014</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G18" s="4">
         <v>10014</v>
@@ -1418,7 +1418,7 @@
         <v>10015</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" s="4">
         <v>10015</v>
@@ -1430,7 +1430,7 @@
         <v>-1</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K19" s="4">
         <v>2</v>

--- a/Excel/TitleConfig.xlsx
+++ b/Excel/TitleConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA33EA29-2994-451A-8831-2E6D65F9FC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863B22F2-6D26-4FB3-8D88-D0BC2EBE5C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -309,10 +309,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>暂无获取方法,后期添加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>120703;100</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -354,6 +350,10 @@
   </si>
   <si>
     <t>100402;0.02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到系统获取</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -777,7 +777,7 @@
   <dimension ref="C1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -994,7 +994,7 @@
         <v>10003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="4">
         <v>10003</v>
@@ -1070,7 +1070,7 @@
         <v>100041</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="4">
         <v>10016</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1222,13 +1222,13 @@
         <v>10008</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="4">
         <v>10008</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="4">
         <v>10003</v>
@@ -1240,7 +1240,7 @@
         <v>-1</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K14" s="4">
         <v>2</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1342,7 +1342,7 @@
         <v>10013</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="4">
         <v>10013</v>
@@ -1354,7 +1354,7 @@
         <v>-1</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K17" s="4">
         <v>2</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1380,7 +1380,7 @@
         <v>10014</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="4">
         <v>10014</v>
@@ -1418,7 +1418,7 @@
         <v>10015</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" s="4">
         <v>10015</v>
@@ -1430,7 +1430,7 @@
         <v>-1</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K19" s="4">
         <v>2</v>

--- a/Excel/TitleConfig.xlsx
+++ b/Excel/TitleConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863B22F2-6D26-4FB3-8D88-D0BC2EBE5C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A55875-D1BE-410A-84CD-017FCF003CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -309,14 +309,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>120703;100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术强度+100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>闪避率+1%</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -354,6 +346,14 @@
   </si>
   <si>
     <t>签到系统获取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击+150</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100403;150</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -777,7 +777,7 @@
   <dimension ref="C1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -994,7 +994,7 @@
         <v>10003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E8" s="4">
         <v>10003</v>
@@ -1070,7 +1070,7 @@
         <v>100041</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" s="4">
         <v>10016</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1222,13 +1222,13 @@
         <v>10008</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14" s="4">
         <v>10008</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G14" s="4">
         <v>10003</v>
@@ -1240,7 +1240,7 @@
         <v>-1</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K14" s="4">
         <v>2</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1342,7 +1342,7 @@
         <v>10013</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G17" s="4">
         <v>10013</v>
@@ -1354,7 +1354,7 @@
         <v>-1</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K17" s="4">
         <v>2</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1380,7 +1380,7 @@
         <v>10014</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G18" s="4">
         <v>10014</v>
@@ -1418,7 +1418,7 @@
         <v>10015</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G19" s="4">
         <v>10015</v>
@@ -1430,7 +1430,7 @@
         <v>-1</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="K19" s="4">
         <v>2</v>

--- a/Excel/TitleConfig.xlsx
+++ b/Excel/TitleConfig.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A55875-D1BE-410A-84CD-017FCF003CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="TitleProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{E5C3746B-21F6-4C38-AF5A-6E67ABF559E4}">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -41,14 +33,28 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
--1 永久
-其他对应秒时间</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">-1 永久
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>其他对应秒时间</t>
         </r>
       </text>
     </comment>
@@ -57,311 +63,244 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>图标显示</t>
+  </si>
+  <si>
+    <t>额外属性</t>
+  </si>
+  <si>
+    <t>序列帧动画</t>
+  </si>
+  <si>
+    <t>序列帧动画数量</t>
+  </si>
+  <si>
+    <t>有效期(秒)</t>
+  </si>
+  <si>
+    <t>额外属性描述</t>
+  </si>
+  <si>
+    <t>缩放大小</t>
+  </si>
+  <si>
+    <t>X偏移</t>
+  </si>
+  <si>
+    <t>Y便宜</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>AddProperty</t>
+  </si>
+  <si>
+    <t>AnimatorAsset</t>
+  </si>
+  <si>
+    <t>AnimatorNumber</t>
+  </si>
+  <si>
+    <t>ValidityTime</t>
+  </si>
+  <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>MoveX</t>
+  </si>
+  <si>
+    <t>MoveY</t>
+  </si>
+  <si>
+    <t>GetDes</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标显示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外属性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Des</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddProperty</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外属性描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ValidityTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效期(秒)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>序列帧动画</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>序列帧动画数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimatorNumber</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimatorAsset</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>double</t>
   </si>
   <si>
     <t>武林新丁</t>
   </si>
   <si>
+    <t>100203;300</t>
+  </si>
+  <si>
+    <t>血量+300</t>
+  </si>
+  <si>
+    <t>30级完成任务激活</t>
+  </si>
+  <si>
     <t>无名之辈</t>
   </si>
   <si>
+    <t>100203;500</t>
+  </si>
+  <si>
+    <t>血量+500</t>
+  </si>
+  <si>
+    <t>60级完成任务激活</t>
+  </si>
+  <si>
+    <t>名扬四海</t>
+  </si>
+  <si>
+    <t>100403;50</t>
+  </si>
+  <si>
+    <t>攻击+50</t>
+  </si>
+  <si>
+    <t>赞助礼包获取</t>
+  </si>
+  <si>
     <t>武林俊杰</t>
   </si>
   <si>
+    <t>100202;0.01</t>
+  </si>
+  <si>
+    <t>血量提高1%</t>
+  </si>
+  <si>
+    <t>成就系统获取</t>
+  </si>
+  <si>
+    <t>英雄豪杰</t>
+  </si>
+  <si>
+    <t>登录奖励系统获取</t>
+  </si>
+  <si>
     <t>红尘本无道</t>
   </si>
   <si>
+    <t>100402;0.01</t>
+  </si>
+  <si>
+    <t>攻击提升1%</t>
+  </si>
+  <si>
+    <t>勇者无敌</t>
+  </si>
+  <si>
+    <t>200903;0.02</t>
+  </si>
+  <si>
+    <t>伤害加成+2%</t>
+  </si>
+  <si>
+    <t>战场活动获取</t>
+  </si>
+  <si>
+    <t>武林至尊</t>
+  </si>
+  <si>
+    <t>200103;0.02</t>
+  </si>
+  <si>
+    <t>暴击率+2%</t>
+  </si>
+  <si>
+    <t>角斗场活动获取</t>
+  </si>
+  <si>
+    <t>绝世英豪</t>
+  </si>
+  <si>
+    <t>100603;80@100803;80</t>
+  </si>
+  <si>
+    <t>物防和魔防提升80点</t>
+  </si>
+  <si>
+    <t>签到系统获取</t>
+  </si>
+  <si>
     <t>独孤求败</t>
   </si>
   <si>
-    <t>勇者无敌</t>
-  </si>
-  <si>
-    <t>武林至尊</t>
+    <t>100403;100</t>
+  </si>
+  <si>
+    <t>攻击+100</t>
+  </si>
+  <si>
+    <t>令牌系统获取</t>
   </si>
   <si>
     <t>九霄风云</t>
   </si>
   <si>
+    <t>202103;0.02</t>
+  </si>
+  <si>
+    <t>重击率+2%</t>
+  </si>
+  <si>
+    <t>积分系统获取</t>
+  </si>
+  <si>
     <t>名震八方</t>
   </si>
   <si>
+    <t>200303;0.01</t>
+  </si>
+  <si>
+    <t>闪避率+1%</t>
+  </si>
+  <si>
     <t>世人笑我太疯癫</t>
   </si>
   <si>
-    <t>double</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩放大小</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>100402;0.02</t>
+  </si>
+  <si>
+    <t>攻击提升2%</t>
   </si>
   <si>
     <t>一刃横天</t>
   </si>
   <si>
-    <t>X偏移</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y便宜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100203;500</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量+300</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100203;300</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量+500</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetDes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>30级完成任务激活</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>60级完成任务激活</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角斗场活动获取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战场活动获取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就系统获取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>赞助礼包获取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>令牌系统获取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分系统获取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击+100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100403;100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100403;50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击+50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100202;0.01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量提高1%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100402;0.01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击提升1%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率+2%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>200103;0.02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害加成+2%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>200903;0.02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击提升2%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>202103;0.02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重击率+2%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避率+1%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>200303;0.01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名扬四海</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝世英豪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄豪杰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录奖励系统获取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>物防和魔防提升80点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100603;80@100803;80</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100402;0.02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到系统获取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>100403;150</t>
   </si>
   <si>
     <t>攻击+150</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100403;150</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,47 +312,168 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,12 +488,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -454,9 +700,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -467,23 +955,62 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -768,19 +1295,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="C1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="N14" sqref="C14:N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -788,143 +1315,143 @@
     <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="18.75" style="2" customWidth="1"/>
     <col min="11" max="13" width="9" style="2"/>
     <col min="14" max="14" width="18.75" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.1" customHeight="1"/>
+    <row r="2" ht="20.1" customHeight="1"/>
+    <row r="3" ht="20.1" customHeight="1" spans="3:14">
       <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="3:14">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>12</v>
+      <c r="K4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>42</v>
+    <row r="5" ht="20.1" customHeight="1" spans="3:14">
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C6" s="4">
         <v>10001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6" s="4">
         <v>10001</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G6" s="4">
         <v>10001</v>
@@ -936,7 +1463,7 @@
         <v>-1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K6" s="4">
         <v>2</v>
@@ -948,21 +1475,21 @@
         <v>0</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="20.1" customHeight="1" spans="3:14">
       <c r="C7" s="4">
         <v>10002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E7" s="4">
         <v>10002</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G7" s="4">
         <v>10002</v>
@@ -974,7 +1501,7 @@
         <v>-1</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K7" s="4">
         <v>2</v>
@@ -986,21 +1513,21 @@
         <v>0</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="8" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="20.1" customHeight="1" spans="3:14">
       <c r="C8" s="4">
         <v>10003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4">
         <v>10003</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G8" s="4">
         <v>10008</v>
@@ -1012,7 +1539,7 @@
         <v>-1</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="K8" s="4">
         <v>2</v>
@@ -1024,21 +1551,21 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="9" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="20.1" customHeight="1" spans="3:14">
       <c r="C9" s="4">
         <v>10004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E9" s="4">
         <v>10004</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G9" s="4">
         <v>10004</v>
@@ -1050,7 +1577,7 @@
         <v>-1</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K9" s="4">
         <v>2</v>
@@ -1062,21 +1589,21 @@
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="10" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="20.1" customHeight="1" spans="3:14">
       <c r="C10" s="4">
         <v>100041</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E10" s="4">
         <v>10016</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G10" s="4">
         <v>10016</v>
@@ -1088,7 +1615,7 @@
         <v>-1</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K10" s="4">
         <v>2</v>
@@ -1100,21 +1627,21 @@
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="11" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="20.1" customHeight="1" spans="3:14">
       <c r="C11" s="4">
         <v>10005</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E11" s="4">
         <v>10005</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G11" s="4">
         <v>10005</v>
@@ -1126,7 +1653,7 @@
         <v>-1</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K11" s="4">
         <v>2</v>
@@ -1138,21 +1665,21 @@
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="12" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="20.1" customHeight="1" spans="3:14">
       <c r="C12" s="4">
         <v>10006</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E12" s="4">
         <v>10006</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G12" s="4">
         <v>10006</v>
@@ -1164,7 +1691,7 @@
         <v>86400</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K12" s="4">
         <v>2</v>
@@ -1176,21 +1703,21 @@
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="13" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="20.1" customHeight="1" spans="3:14">
       <c r="C13" s="4">
         <v>10007</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E13" s="4">
         <v>10007</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G13" s="4">
         <v>10007</v>
@@ -1202,7 +1729,7 @@
         <v>86400</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K13" s="4">
         <v>2</v>
@@ -1214,21 +1741,21 @@
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="14" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="20.1" customHeight="1" spans="3:14">
       <c r="C14" s="4">
         <v>10008</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E14" s="4">
         <v>10008</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G14" s="4">
         <v>10003</v>
@@ -1240,7 +1767,7 @@
         <v>-1</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="K14" s="4">
         <v>2</v>
@@ -1252,21 +1779,21 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="15" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="20.1" customHeight="1" spans="3:14">
       <c r="C15" s="4">
         <v>10009</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E15" s="4">
         <v>10009</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G15" s="4">
         <v>10009</v>
@@ -1278,7 +1805,7 @@
         <v>-1</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K15" s="4">
         <v>2</v>
@@ -1290,21 +1817,21 @@
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="16" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="20.1" customHeight="1" spans="3:14">
       <c r="C16" s="4">
         <v>10011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E16" s="4">
         <v>10011</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="4">
         <v>10011</v>
@@ -1316,7 +1843,7 @@
         <v>-1</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K16" s="4">
         <v>2</v>
@@ -1328,15 +1855,15 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="17" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="20.1" customHeight="1" spans="3:14">
       <c r="C17" s="4">
         <v>10013</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="E17" s="4">
         <v>10013</v>
@@ -1354,7 +1881,7 @@
         <v>-1</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K17" s="4">
         <v>2</v>
@@ -1366,21 +1893,21 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="18" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="20.1" customHeight="1" spans="3:14">
       <c r="C18" s="4">
         <v>10014</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E18" s="4">
         <v>10014</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G18" s="4">
         <v>10014</v>
@@ -1392,7 +1919,7 @@
         <v>-1</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K18" s="4">
         <v>2</v>
@@ -1404,21 +1931,21 @@
         <v>0</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" ht="20.1" customHeight="1" spans="3:14">
       <c r="C19" s="4">
         <v>10015</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="E19" s="4">
         <v>10015</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G19" s="4">
         <v>10015</v>
@@ -1430,7 +1957,7 @@
         <v>-1</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K19" s="4">
         <v>2</v>
@@ -1442,22 +1969,22 @@
         <v>0</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="20" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="20.1" customHeight="1"/>
+    <row r="21" ht="20.1" customHeight="1"/>
+    <row r="22" ht="20.1" customHeight="1"/>
+    <row r="23" ht="20.1" customHeight="1"/>
+    <row r="24" ht="20.1" customHeight="1"/>
+    <row r="25" ht="20.1" customHeight="1"/>
+    <row r="26" ht="20.1" customHeight="1"/>
+    <row r="27" ht="20.1" customHeight="1"/>
+    <row r="28" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/TitleConfig.xlsx
+++ b/Excel/TitleConfig.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA87F3B8-7C61-4D88-A09F-F876D7409A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -34,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -43,6 +51,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">-1 永久
@@ -52,6 +61,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>其他对应秒时间</t>
@@ -63,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>Id</t>
   </si>
@@ -282,25 +292,13 @@
   </si>
   <si>
     <t>一刃横天</t>
-  </si>
-  <si>
-    <t>100403;150</t>
-  </si>
-  <si>
-    <t>攻击+150</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +310,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -319,161 +318,39 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,198 +365,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -700,251 +391,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -959,58 +408,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1295,19 +705,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="N14" sqref="C14:N14"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -1324,9 +734,9 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1"/>
-    <row r="3" ht="20.1" customHeight="1" spans="3:14">
+    <row r="1" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1364,7 +774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:14">
+    <row r="4" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1402,7 +812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:14">
+    <row r="5" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1440,7 +850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="6" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="4">
         <v>10001</v>
       </c>
@@ -1478,7 +888,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:14">
+    <row r="7" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="4">
         <v>10002</v>
       </c>
@@ -1516,7 +926,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:14">
+    <row r="8" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="4">
         <v>10003</v>
       </c>
@@ -1554,7 +964,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:14">
+    <row r="9" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="4">
         <v>10004</v>
       </c>
@@ -1592,7 +1002,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:14">
+    <row r="10" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4">
         <v>100041</v>
       </c>
@@ -1630,7 +1040,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:14">
+    <row r="11" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="4">
         <v>10005</v>
       </c>
@@ -1668,7 +1078,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:14">
+    <row r="12" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4">
         <v>10006</v>
       </c>
@@ -1706,7 +1116,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:14">
+    <row r="13" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="4">
         <v>10007</v>
       </c>
@@ -1744,7 +1154,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:14">
+    <row r="14" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="4">
         <v>10008</v>
       </c>
@@ -1782,7 +1192,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:14">
+    <row r="15" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="4">
         <v>10009</v>
       </c>
@@ -1820,7 +1230,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:14">
+    <row r="16" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4">
         <v>10011</v>
       </c>
@@ -1858,7 +1268,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:14">
+    <row r="17" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="4">
         <v>10013</v>
       </c>
@@ -1896,7 +1306,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:14">
+    <row r="18" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="4">
         <v>10014</v>
       </c>
@@ -1934,7 +1344,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:14">
+    <row r="19" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="4">
         <v>10015</v>
       </c>
@@ -1945,7 +1355,7 @@
         <v>10015</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="G19" s="4">
         <v>10015</v>
@@ -1957,7 +1367,7 @@
         <v>-1</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="K19" s="4">
         <v>2</v>
@@ -1972,19 +1382,19 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1"/>
-    <row r="21" ht="20.1" customHeight="1"/>
-    <row r="22" ht="20.1" customHeight="1"/>
-    <row r="23" ht="20.1" customHeight="1"/>
-    <row r="24" ht="20.1" customHeight="1"/>
-    <row r="25" ht="20.1" customHeight="1"/>
-    <row r="26" ht="20.1" customHeight="1"/>
-    <row r="27" ht="20.1" customHeight="1"/>
-    <row r="28" ht="20.1" customHeight="1"/>
+    <row r="20" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/TitleConfig.xlsx
+++ b/Excel/TitleConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA87F3B8-7C61-4D88-A09F-F876D7409A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEB0B03-D9E9-43B9-A974-C451AE2CBDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
   <si>
     <t>Id</t>
   </si>
@@ -177,12 +177,6 @@
     <t>名扬四海</t>
   </si>
   <si>
-    <t>100403;50</t>
-  </si>
-  <si>
-    <t>攻击+50</t>
-  </si>
-  <si>
     <t>赞助礼包获取</t>
   </si>
   <si>
@@ -240,58 +234,93 @@
     <t>绝世英豪</t>
   </si>
   <si>
-    <t>100603;80@100803;80</t>
-  </si>
-  <si>
-    <t>物防和魔防提升80点</t>
-  </si>
-  <si>
     <t>签到系统获取</t>
   </si>
   <si>
     <t>独孤求败</t>
   </si>
   <si>
+    <t>令牌系统获取</t>
+  </si>
+  <si>
+    <t>九霄风云</t>
+  </si>
+  <si>
+    <t>积分系统获取</t>
+  </si>
+  <si>
+    <t>名震八方</t>
+  </si>
+  <si>
+    <t>一刃横天</t>
+  </si>
+  <si>
+    <t>203003;0.1@203103;0.1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>对领主怪物伤害额外提升10%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>世人笑我太疯癫</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避率+3%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>200303;0.03</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>202103;0.03</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击概率提升3%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击+600</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100403;600</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击+100</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>100403;100</t>
-  </si>
-  <si>
-    <t>攻击+100</t>
-  </si>
-  <si>
-    <t>令牌系统获取</t>
-  </si>
-  <si>
-    <t>九霄风云</t>
-  </si>
-  <si>
-    <t>202103;0.02</t>
-  </si>
-  <si>
-    <t>重击率+2%</t>
-  </si>
-  <si>
-    <t>积分系统获取</t>
-  </si>
-  <si>
-    <t>名震八方</t>
-  </si>
-  <si>
-    <t>200303;0.01</t>
-  </si>
-  <si>
-    <t>闪避率+1%</t>
-  </si>
-  <si>
-    <t>世人笑我太疯癫</t>
-  </si>
-  <si>
-    <t>100402;0.02</t>
-  </si>
-  <si>
-    <t>攻击提升2%</t>
-  </si>
-  <si>
-    <t>一刃横天</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击+120</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100403;120</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100402;0.05@203003;0.05@203103;0.05</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100402;0.03@200103;0.03@203003;0.05@203103;0.05</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升5%,对怪伤害+5%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升3%,暴击率+3%,对怪伤害+5%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -711,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:N28"/>
+  <dimension ref="C1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -734,9 +763,9 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -774,7 +803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -812,7 +841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
@@ -850,7 +879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="4">
         <v>10001</v>
       </c>
@@ -887,8 +916,11 @@
       <c r="N6" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="4">
         <v>10002</v>
       </c>
@@ -925,8 +957,10 @@
       <c r="N7" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="4">
         <v>10003</v>
       </c>
@@ -937,7 +971,7 @@
         <v>10003</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G8" s="4">
         <v>10008</v>
@@ -949,7 +983,7 @@
         <v>-1</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="K8" s="4">
         <v>2</v>
@@ -961,21 +995,23 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="4">
         <v>10004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="4">
         <v>10004</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G9" s="4">
         <v>10004</v>
@@ -987,7 +1023,7 @@
         <v>-1</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K9" s="4">
         <v>2</v>
@@ -999,21 +1035,23 @@
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4">
         <v>100041</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="4">
         <v>10016</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="G10" s="4">
         <v>10016</v>
@@ -1025,7 +1063,7 @@
         <v>-1</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="K10" s="4">
         <v>2</v>
@@ -1037,21 +1075,23 @@
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="4">
         <v>10005</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="4">
         <v>10005</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11" s="4">
         <v>10005</v>
@@ -1063,7 +1103,7 @@
         <v>-1</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K11" s="4">
         <v>2</v>
@@ -1075,21 +1115,23 @@
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4">
         <v>10006</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="4">
         <v>10006</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G12" s="4">
         <v>10006</v>
@@ -1101,7 +1143,7 @@
         <v>86400</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K12" s="4">
         <v>2</v>
@@ -1113,21 +1155,23 @@
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="4">
         <v>10007</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E13" s="4">
         <v>10007</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G13" s="4">
         <v>10007</v>
@@ -1139,7 +1183,7 @@
         <v>86400</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K13" s="4">
         <v>2</v>
@@ -1151,21 +1195,23 @@
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="4">
         <v>10008</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E14" s="4">
         <v>10008</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G14" s="4">
         <v>10003</v>
@@ -1177,7 +1223,7 @@
         <v>-1</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K14" s="4">
         <v>2</v>
@@ -1189,21 +1235,23 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="4">
         <v>10009</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E15" s="4">
         <v>10009</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G15" s="4">
         <v>10009</v>
@@ -1215,7 +1263,7 @@
         <v>-1</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K15" s="4">
         <v>2</v>
@@ -1227,21 +1275,23 @@
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="4">
         <v>10011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E16" s="4">
         <v>10011</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G16" s="4">
         <v>10011</v>
@@ -1253,7 +1303,7 @@
         <v>-1</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K16" s="4">
         <v>2</v>
@@ -1265,21 +1315,23 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="4">
         <v>10013</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E17" s="4">
         <v>10013</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G17" s="4">
         <v>10013</v>
@@ -1291,7 +1343,7 @@
         <v>-1</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K17" s="4">
         <v>2</v>
@@ -1303,21 +1355,23 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="4">
         <v>10014</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E18" s="4">
         <v>10014</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G18" s="4">
         <v>10014</v>
@@ -1329,7 +1383,7 @@
         <v>-1</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K18" s="4">
         <v>2</v>
@@ -1341,21 +1395,23 @@
         <v>0</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="4">
         <v>10015</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E19" s="4">
         <v>10015</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="G19" s="4">
         <v>10015</v>
@@ -1367,7 +1423,7 @@
         <v>-1</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="K19" s="4">
         <v>2</v>
@@ -1379,18 +1435,23 @@
         <v>0</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>57</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T20" s="1"/>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TitleConfig.xlsx
+++ b/Excel/TitleConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEB0B03-D9E9-43B9-A974-C451AE2CBDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B50355A-659D-430B-8107-F91343700A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1097,7 +1097,7 @@
         <v>10005</v>
       </c>
       <c r="H11" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I11" s="4">
         <v>-1</v>
@@ -1297,7 +1297,7 @@
         <v>10011</v>
       </c>
       <c r="H16" s="4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I16" s="4">
         <v>-1</v>

--- a/Excel/TitleConfig.xlsx
+++ b/Excel/TitleConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B50355A-659D-430B-8107-F91343700A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AD8846-04D0-4363-980B-ED85E7776E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,19 +307,19 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>100402;0.05@203003;0.05@203103;0.05</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>100402;0.03@200103;0.03@203003;0.05@203103;0.05</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击提升5%,对怪伤害+5%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击提升3%,暴击率+3%,对怪伤害+5%</t>
+    <t>攻击提升5%,对怪伤害+10%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升3%,暴击率+3%,对怪伤害+10%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100402;0.05@203003;0.1@203103;0.1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100402;0.03@200103;0.03@203003;0.1@203103;0.1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -743,7 +743,7 @@
   <dimension ref="C1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -753,11 +753,11 @@
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="32.625" style="2" customWidth="1"/>
     <col min="11" max="13" width="9" style="2"/>
     <col min="14" max="14" width="18.75" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
@@ -1371,7 +1371,7 @@
         <v>10014</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G18" s="4">
         <v>10014</v>
@@ -1383,7 +1383,7 @@
         <v>-1</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K18" s="4">
         <v>2</v>
@@ -1411,7 +1411,7 @@
         <v>10015</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G19" s="4">
         <v>10015</v>
@@ -1423,7 +1423,7 @@
         <v>-1</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K19" s="4">
         <v>2</v>
